--- a/SuRGE_Sharepoint/data/CIN/CH4_188_Stubblefield/dataSheets/surgeData188.xlsx
+++ b/SuRGE_Sharepoint/data/CIN/CH4_188_Stubblefield/dataSheets/surgeData188.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/CIN/CH4_188_Stubblefield/dataSheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/beaulieu_jake_epa_gov/Documents/gitRepository/SuRGE/SuRGE_Sharepoint/data/CIN/CH4_188_Stubblefield/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{9F7B7D88-503D-46DB-B506-5DF38EABD89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80FA7651-1809-4530-AA17-A09DE85FD8C5}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{9F7B7D88-503D-46DB-B506-5DF38EABD89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8D24F52-5715-455C-8626-48A441B2B276}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="34560" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1384,9 +1384,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1424,7 +1424,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1530,7 +1530,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1672,7 +1672,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1683,78 +1683,78 @@
   <dimension ref="A1:BZ18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J11" sqref="J11"/>
+      <pane xSplit="2" topLeftCell="AT1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BT17" sqref="BT17:BV17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" customWidth="1"/>
-    <col min="19" max="19" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.140625" customWidth="1"/>
-    <col min="25" max="25" width="15.140625" customWidth="1"/>
-    <col min="26" max="26" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" customWidth="1"/>
+    <col min="19" max="19" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.109375" customWidth="1"/>
+    <col min="25" max="25" width="15.109375" customWidth="1"/>
+    <col min="26" max="26" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="8" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.5703125" customWidth="1"/>
+    <col min="30" max="30" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.5546875" customWidth="1"/>
     <col min="32" max="32" width="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.5703125" customWidth="1"/>
-    <col min="34" max="34" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.5546875" customWidth="1"/>
+    <col min="34" max="34" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="11" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="6.85546875" customWidth="1"/>
-    <col min="52" max="52" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="6.42578125" customWidth="1"/>
-    <col min="54" max="54" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="59" max="60" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="65" max="66" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="67" max="69" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="6.88671875" customWidth="1"/>
+    <col min="52" max="52" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="6.44140625" customWidth="1"/>
+    <col min="54" max="54" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="59" max="60" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="65" max="66" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="67" max="69" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="18" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>54</v>
       </c>
@@ -1846,7 +1846,7 @@
       <c r="BY1" s="30"/>
       <c r="BZ1" s="30"/>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>161</v>
       </c>
@@ -2188,15 +2188,6 @@
       <c r="BE3">
         <v>12</v>
       </c>
-      <c r="BT3" t="s">
-        <v>191</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>192</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>193</v>
-      </c>
       <c r="BW3">
         <v>2.0699999999999998</v>
       </c>
@@ -2210,7 +2201,7 @@
         <v>0.83355324074074078</v>
       </c>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>161</v>
       </c>
@@ -2308,7 +2299,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>161</v>
       </c>
@@ -2406,7 +2397,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>161</v>
       </c>
@@ -2504,7 +2495,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>161</v>
       </c>
@@ -2602,7 +2593,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>161</v>
       </c>
@@ -2700,7 +2691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>161</v>
       </c>
@@ -2798,7 +2789,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>161</v>
       </c>
@@ -2896,7 +2887,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>161</v>
       </c>
@@ -2997,7 +2988,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>161</v>
       </c>
@@ -3107,7 +3098,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="13" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>161</v>
       </c>
@@ -3208,7 +3199,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>161</v>
       </c>
@@ -3309,7 +3300,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>161</v>
       </c>
@@ -3410,7 +3401,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>161</v>
       </c>
@@ -3511,7 +3502,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>161</v>
       </c>
@@ -3611,8 +3602,17 @@
       <c r="BE17">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BT17" t="s">
+        <v>191</v>
+      </c>
+      <c r="BU17" t="s">
+        <v>192</v>
+      </c>
+      <c r="BV17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:74" x14ac:dyDescent="0.3">
       <c r="G18" s="26"/>
       <c r="I18" s="26"/>
       <c r="T18" s="27"/>
@@ -3640,14 +3640,14 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.7109375" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.6640625" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>135</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>205</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>202</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>203</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>204</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>148</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>159</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>149</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>206</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>154</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>139</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>140</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>141</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>150</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>207</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>142</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>29</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>32</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>33</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>151</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>160</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>40</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>41</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>42</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>43</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>152</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>208</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>44</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>143</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>144</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>145</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>146</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>153</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>209</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>147</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>49</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>50</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>51</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>52</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>53</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>157</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>158</v>
       </c>
@@ -4430,17 +4430,17 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="25"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="25"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>59</v>
       </c>
@@ -4456,7 +4456,7 @@
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
@@ -4490,7 +4490,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>161</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>161</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>161</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>161</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>161</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>161</v>
       </c>
@@ -4681,14 +4681,14 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.5703125" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5546875" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>135</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>45</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>46</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>47</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>48</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>123</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>124</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>125</v>
       </c>
@@ -4801,62 +4801,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d40b3e6283001fb57e5088f84fb23d5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aadbb8160917885bdc8cfb32badaafe9" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5327,7 +5271,102 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2C7B17A-0095-4C66-BEE0-6A23BD7897E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="8b03727f-4454-4722-b3e6-018d8dcaf2fd"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5339,24 +5378,4 @@
     <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2C7B17A-0095-4C66-BEE0-6A23BD7897E1}"/>
 </file>